--- a/Sorption Experiments/RaPYRArtificialWater/RaPYRArtificialWater.xlsx
+++ b/Sorption Experiments/RaPYRArtificialWater/RaPYRArtificialWater.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="7470" windowHeight="12285" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Parameters" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="275" uniqueCount="127">
   <si>
     <t>Parameters</t>
   </si>
@@ -1680,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F64"/>
+  <dimension ref="A1:F76"/>
   <sheetViews>
     <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="E67" sqref="E67"/>
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2971,6 +2971,246 @@
       </c>
       <c r="F64">
         <v>95.64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="16">
+        <v>42993.404166666667</v>
+      </c>
+      <c r="B65" t="s">
+        <v>119</v>
+      </c>
+      <c r="C65">
+        <v>463.2</v>
+      </c>
+      <c r="D65">
+        <v>2.94</v>
+      </c>
+      <c r="E65">
+        <v>2.04</v>
+      </c>
+      <c r="F65">
+        <v>53.52</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="16">
+        <v>42993.404166666667</v>
+      </c>
+      <c r="B66" t="s">
+        <v>120</v>
+      </c>
+      <c r="C66">
+        <v>466.1</v>
+      </c>
+      <c r="D66">
+        <v>2.93</v>
+      </c>
+      <c r="E66">
+        <v>1.96</v>
+      </c>
+      <c r="F66">
+        <v>64.39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="16">
+        <v>42993.404166666667</v>
+      </c>
+      <c r="B67" t="s">
+        <v>121</v>
+      </c>
+      <c r="C67">
+        <v>409</v>
+      </c>
+      <c r="D67">
+        <v>3.13</v>
+      </c>
+      <c r="E67">
+        <v>2.11</v>
+      </c>
+      <c r="F67">
+        <v>75.25</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="16">
+        <v>42993.554166666669</v>
+      </c>
+      <c r="B68" t="s">
+        <v>119</v>
+      </c>
+      <c r="C68">
+        <v>447</v>
+      </c>
+      <c r="D68">
+        <v>2.99</v>
+      </c>
+      <c r="E68">
+        <v>1.23</v>
+      </c>
+      <c r="F68">
+        <v>53.48</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="16">
+        <v>42993.554166666669</v>
+      </c>
+      <c r="B69" t="s">
+        <v>120</v>
+      </c>
+      <c r="C69">
+        <v>448.1</v>
+      </c>
+      <c r="D69">
+        <v>2.99</v>
+      </c>
+      <c r="E69">
+        <v>1.1910000000000001</v>
+      </c>
+      <c r="F69">
+        <v>64.209999999999994</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="16">
+        <v>42993.554166666669</v>
+      </c>
+      <c r="B70" t="s">
+        <v>121</v>
+      </c>
+      <c r="C70">
+        <v>422.1</v>
+      </c>
+      <c r="D70">
+        <v>3.08</v>
+      </c>
+      <c r="E70">
+        <v>1.19</v>
+      </c>
+      <c r="F70">
+        <v>74.959999999999994</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B71" t="s">
+        <v>119</v>
+      </c>
+      <c r="C71">
+        <v>446.7</v>
+      </c>
+      <c r="D71">
+        <v>2.99</v>
+      </c>
+      <c r="E71">
+        <v>0.7</v>
+      </c>
+      <c r="F71">
+        <v>53.43</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B72" t="s">
+        <v>120</v>
+      </c>
+      <c r="C72">
+        <v>438.4</v>
+      </c>
+      <c r="D72">
+        <v>3.02</v>
+      </c>
+      <c r="E72">
+        <v>0.71</v>
+      </c>
+      <c r="F72">
+        <v>64.14</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="16">
+        <v>42993.65625</v>
+      </c>
+      <c r="B73" t="s">
+        <v>121</v>
+      </c>
+      <c r="C73">
+        <v>428</v>
+      </c>
+      <c r="D73">
+        <v>3.06</v>
+      </c>
+      <c r="E73">
+        <v>0.68</v>
+      </c>
+      <c r="F73">
+        <v>74.95</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="16">
+        <v>42996.414583333331</v>
+      </c>
+      <c r="B74" t="s">
+        <v>119</v>
+      </c>
+      <c r="C74">
+        <v>442.6</v>
+      </c>
+      <c r="D74">
+        <v>3.01</v>
+      </c>
+      <c r="E74">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="F74">
+        <v>10.63</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="16">
+        <v>42996.414583333331</v>
+      </c>
+      <c r="B75" t="s">
+        <v>120</v>
+      </c>
+      <c r="C75">
+        <v>426.9</v>
+      </c>
+      <c r="D75">
+        <v>3.06</v>
+      </c>
+      <c r="E75">
+        <v>0.08</v>
+      </c>
+      <c r="F75">
+        <v>21.28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="16">
+        <v>42996.414583333331</v>
+      </c>
+      <c r="B76" t="s">
+        <v>121</v>
+      </c>
+      <c r="C76">
+        <v>431</v>
+      </c>
+      <c r="D76">
+        <v>3.05</v>
+      </c>
+      <c r="E76">
+        <v>0.08</v>
+      </c>
+      <c r="F76">
+        <v>31.91</v>
       </c>
     </row>
   </sheetData>
@@ -6362,7 +6602,7 @@
   <dimension ref="A1:G13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="C11" sqref="C11:D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6631,12 +6871,18 @@
       <c r="B11" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="C11">
+        <v>7.4979166666666659</v>
+      </c>
+      <c r="D11">
+        <v>0.22362536458333329</v>
+      </c>
       <c r="E11" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F11" s="1">
         <f>C11*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1540120687073196</v>
       </c>
       <c r="G11" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6650,12 +6896,18 @@
       <c r="B12" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="C12">
+        <v>7.4145833333333337</v>
+      </c>
+      <c r="D12">
+        <v>0.22243750000000001</v>
+      </c>
       <c r="E12" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F12" s="1">
         <f>C12*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1407459297737268</v>
       </c>
       <c r="G12" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6669,12 +6921,18 @@
       <c r="B13" s="14" t="s">
         <v>85</v>
       </c>
+      <c r="C13">
+        <v>7.0420833333333333</v>
+      </c>
+      <c r="D13">
+        <v>0.2168961666666667</v>
+      </c>
       <c r="E13" s="1" t="s">
         <v>45</v>
       </c>
       <c r="F13" s="1">
         <f>C13*'Calibration Data'!$B$31+'Calibration Data'!$B$30</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.081446288740566</v>
       </c>
       <c r="G13" s="15">
         <f>'Calibration Data'!$B$20</f>
@@ -6691,10 +6949,10 @@
   <dimension ref="A1:S13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="G2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="I2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S10" sqref="S10"/>
+      <selection pane="bottomRight" activeCell="W11" sqref="W11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7383,7 +7641,7 @@
       </c>
       <c r="I11" s="1">
         <f>'Count-&gt;Actual Activity'!F11</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1540120687073196</v>
       </c>
       <c r="J11" s="15">
         <f>'Count-&gt;Actual Activity'!G11</f>
@@ -7397,11 +7655,11 @@
       </c>
       <c r="M11">
         <f t="shared" si="0"/>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1540120687073196</v>
       </c>
       <c r="N11">
         <f t="shared" si="1"/>
-        <v>-0.15745117319419344</v>
+        <v>0.15787301682092547</v>
       </c>
       <c r="O11">
         <f>B11*Parameters!$B$6</f>
@@ -7413,11 +7671,11 @@
       </c>
       <c r="Q11">
         <f t="shared" si="2"/>
-        <v>2799.5064224716466</v>
+        <v>-610.83886481414947</v>
       </c>
       <c r="S11">
         <f t="shared" si="3"/>
-        <v>1.0421272111472939</v>
+        <v>-0.22738715565693463</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -7447,7 +7705,7 @@
       </c>
       <c r="I12" s="1">
         <f>'Count-&gt;Actual Activity'!F12</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1407459297737268</v>
       </c>
       <c r="J12" s="15">
         <f>'Count-&gt;Actual Activity'!G12</f>
@@ -7461,11 +7719,11 @@
       </c>
       <c r="M12">
         <f t="shared" si="0"/>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1407459297737268</v>
       </c>
       <c r="N12">
         <f t="shared" si="1"/>
-        <v>-0.15745117319419344</v>
+        <v>0.15786337505038184</v>
       </c>
       <c r="O12">
         <f>B12*Parameters!$B$6</f>
@@ -7477,11 +7735,11 @@
       </c>
       <c r="Q12">
         <f t="shared" si="2"/>
-        <v>3266.0908262169219</v>
+        <v>-668.42487917119797</v>
       </c>
       <c r="S12">
         <f t="shared" si="3"/>
-        <v>1.0421272111472939</v>
+        <v>-0.21327752112729612</v>
       </c>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
@@ -7511,7 +7769,7 @@
       </c>
       <c r="I13" s="1">
         <f>'Count-&gt;Actual Activity'!F13</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.081446288740566</v>
       </c>
       <c r="J13" s="15">
         <f>'Count-&gt;Actual Activity'!G13</f>
@@ -7525,11 +7783,11 @@
       </c>
       <c r="M13">
         <f t="shared" si="0"/>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.081446288740566</v>
       </c>
       <c r="N13">
         <f t="shared" si="1"/>
-        <v>-0.15745117319419344</v>
+        <v>0.15782163242791233</v>
       </c>
       <c r="O13">
         <f>B13*Parameters!$B$6</f>
@@ -7541,11 +7799,11 @@
       </c>
       <c r="Q13">
         <f t="shared" si="2"/>
-        <v>3266.0908262169219</v>
+        <v>-470.75940906066245</v>
       </c>
       <c r="S13">
         <f t="shared" si="3"/>
-        <v>1.0421272111472939</v>
+        <v>-0.15020745477981176</v>
       </c>
     </row>
   </sheetData>
@@ -7557,8 +7815,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5:M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7779,19 +8037,19 @@
       </c>
       <c r="B5">
         <f>AVERAGE('Bottle Results'!M11:M13)</f>
-        <v>-3.9608781842709107E-2</v>
+        <v>1.1254014290738708</v>
       </c>
       <c r="C5">
         <f>_xlfn.STDEV.S('Bottle Results'!M11:M13)</f>
-        <v>0</v>
+        <v>3.8639854837223903E-2</v>
       </c>
       <c r="D5">
         <f>AVERAGE('Bottle Results'!Q11:Q13)</f>
-        <v>3110.5626916351634</v>
+        <v>-583.34105101533657</v>
       </c>
       <c r="E5">
         <f>_xlfn.STDEV.S('Bottle Results'!Q11:Q13)</f>
-        <v>269.38263110201569</v>
+        <v>101.66123568642274</v>
       </c>
       <c r="F5">
         <f>AVERAGE('Bottle Results'!O11:O13)</f>
@@ -7799,11 +8057,11 @@
       </c>
       <c r="G5">
         <f>AVERAGE('Bottle Results'!S11:S13)</f>
-        <v>1.0421272111472939</v>
+        <v>-0.19695737718801418</v>
       </c>
       <c r="H5">
         <f>_xlfn.STDEV.S('Bottle Results'!S11:S13)</f>
-        <v>0</v>
+        <v>4.1096677244269929E-2</v>
       </c>
       <c r="I5">
         <f>AVERAGE('Bottle Results'!D11:D13)</f>
